--- a/prosecutors_data.xlsx
+++ b/prosecutors_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Desktop\检察官画像\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD104EB-6231-460F-9220-C3B801098657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B58537-EAEC-40F8-AB42-4413B5722F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1890" windowWidth="37515" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="1680" windowWidth="36840" windowHeight="19350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,120 +20,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
-  </si>
-  <si>
-    <t>业务能力</t>
-  </si>
-  <si>
-    <t>信调宣能力</t>
-  </si>
-  <si>
-    <t>创新能力</t>
-  </si>
-  <si>
-    <t>学习能力</t>
-  </si>
-  <si>
-    <t>综合能力</t>
-  </si>
-  <si>
-    <t>政治素养</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件办理能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律监督能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字检察能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查研究能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众工作能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马艳君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一部</t>
-  </si>
-  <si>
-    <t>党员</t>
-  </si>
-  <si>
-    <t>建成超市盗窃预警模型</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>二部</t>
-  </si>
-  <si>
-    <t>全国民事检察业务标兵</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>政治部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检察官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈莹璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石林山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚洁婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋迎新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵越超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄小茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瀚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>群众</t>
-  </si>
-  <si>
-    <t>优秀宣传能手</t>
-  </si>
-  <si>
-    <t>赵六</t>
-  </si>
-  <si>
-    <t>三部</t>
-  </si>
-  <si>
-    <t>数字检察专班核心成员</t>
-  </si>
-  <si>
-    <t>钱七</t>
-  </si>
-  <si>
-    <t>四部</t>
-  </si>
-  <si>
-    <t>公益诉讼精品案例主办检察官</t>
-  </si>
-  <si>
-    <t>孙八</t>
-  </si>
-  <si>
-    <t>轻罪案件快速办理能手</t>
-  </si>
-  <si>
-    <t>周九</t>
-  </si>
-  <si>
-    <t>政工部</t>
-  </si>
-  <si>
-    <t>优秀党务工作者</t>
-  </si>
-  <si>
-    <t>吴十</t>
-  </si>
-  <si>
-    <t>涉外检察研究突出贡献</t>
-  </si>
-  <si>
-    <t>郑十一</t>
-  </si>
-  <si>
-    <t>新能源领域检察专班成员</t>
-  </si>
-  <si>
-    <t>王十二</t>
-  </si>
-  <si>
-    <t>行政检察监督典型案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王瑞婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亓悦然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑俪丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐志杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩晔琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘诗雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周炜杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检察官助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马鑫悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付倩倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王栖梧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭秋月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共青团员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄逸凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高溢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王以敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁凯泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温雅妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瑞鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,14 +255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -171,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,29 +287,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,16 +602,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,13 +626,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -556,26 +655,26 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E2">
-        <v>7.5</v>
-      </c>
-      <c r="F2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>8.5</v>
-      </c>
-      <c r="I2">
-        <v>9.5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -583,132 +682,132 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>9.1</v>
-      </c>
-      <c r="E3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F3">
-        <v>7.8</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>7.9</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>7.5</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>8.5</v>
-      </c>
-      <c r="G4">
-        <v>7.8</v>
-      </c>
-      <c r="H4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>8.9</v>
-      </c>
-      <c r="E5">
-        <v>7.8</v>
-      </c>
-      <c r="F5">
-        <v>9.5</v>
-      </c>
-      <c r="G5">
-        <v>8.5</v>
-      </c>
-      <c r="H5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E6">
-        <v>8.5</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -716,158 +815,1086 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E7">
-        <v>7.2</v>
-      </c>
-      <c r="F7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>9.4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>7.8</v>
-      </c>
-      <c r="E8">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H8">
-        <v>9.5</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>8.6</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>7.9</v>
-      </c>
-      <c r="H9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>7.9</v>
-      </c>
-      <c r="F10">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G10">
-        <v>8.6</v>
-      </c>
-      <c r="H10">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I10">
-        <v>9.6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>8.4</v>
-      </c>
-      <c r="E11">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G11">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9.1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6</v>
+      </c>
+      <c r="J29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>6</v>
+      </c>
+      <c r="J30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="3">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="3">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>6</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6</v>
+      </c>
+      <c r="I38" s="3">
+        <v>6</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="3">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="3">
+        <v>6</v>
+      </c>
+      <c r="J39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>6</v>
+      </c>
+      <c r="J40" s="3">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>